--- a/backend/projects/project-a-123-sunset-blvd/data/15_DEFECTS_SNAGGING/Defects_And_Snagging.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/15_DEFECTS_SNAGGING/Defects_And_Snagging.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,7 +669,6 @@
           <t>PENDING</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -806,7 +805,6 @@
           <t>PENDING</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -849,7 +847,6 @@
           <t>PENDING</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -939,7 +936,6 @@
           <t>PENDING</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1076,7 +1072,6 @@
           <t>PENDING</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1166,7 +1161,6 @@
           <t>PENDING</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1303,7 +1297,6 @@
           <t>PENDING</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1346,7 +1339,6 @@
           <t>PENDING</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1439,6 +1431,946 @@
       <c r="I23" t="inlineStr">
         <is>
           <t>Needs oil</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Item 42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Item 42</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Item 42</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Item 42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Item 42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Item 42</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Item 42</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Item 42</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Item 42</t>
         </is>
       </c>
     </row>
